--- a/Equipe107.xlsx
+++ b/Equipe107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="8_{A9B08717-0A78-4896-A8AA-F48CA0C7A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8160A40F-9366-43FD-814E-7911F9A66597}"/>
+  <xr:revisionPtr revIDLastSave="188" documentId="8_{A9B08717-0A78-4896-A8AA-F48CA0C7A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B13020-D173-45C3-B341-E1EE8E593130}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="168">
   <si>
     <t>Fonct.</t>
   </si>
@@ -147,6 +148,9 @@
     <t>MultiplayerCreatePageComponent.navigator, GameClientService.timerInterval, LetterTilesService.minimumSize, LetterTilesService.maxSize, Word.isFirstWord, etc inutiles</t>
   </si>
   <si>
+    <t>InformationPanelComponent.value inutile</t>
+  </si>
+  <si>
     <t>2.4 Accessibilité</t>
   </si>
   <si>
@@ -159,6 +163,9 @@
 ClientSocketService.socket, GridService.boardTileSize aurait du être privée</t>
   </si>
   <si>
+    <t>MultiplayerCreatePageComponent.gameMode, Word.isHorizontal, Word.points, auraient pu être privés</t>
+  </si>
+  <si>
     <t>2.5 Valeur par défaut</t>
   </si>
   <si>
@@ -169,6 +176,9 @@
 Word a beaucoup d'attribus initialisés différemment</t>
   </si>
   <si>
+    <t>MultiplayerCreatePageComponent.timerList, Word contient trois attributs initalisés différemment</t>
+  </si>
+  <si>
     <t>3. Fonctions</t>
   </si>
   <si>
@@ -224,6 +234,9 @@
   </si>
   <si>
     <t>Les constantes sont regroupées ensemble en groupes logiques.</t>
+  </si>
+  <si>
+    <t>client/src/app/services/letter-placement.service.ts: L38 =&gt; la constante devrait etre au debut d fichier</t>
   </si>
   <si>
     <t>5.2 Environnement</t>
@@ -247,6 +260,9 @@
     <t>La constante est utilisé dans un contexte lié à la logique d'affaire. (Exemple d'erreur: const DEUX = 2,  bonne utilisation: WAIT_TIME = 5000 )</t>
   </si>
   <si>
+    <t>server/app/constants/bot.ts: les constantes RANGE_X et PROB_X n'ont pas des bons noms</t>
+  </si>
+  <si>
     <t>6. Expressions booléennes</t>
   </si>
   <si>
@@ -254,6 +270,9 @@
   </si>
   <si>
     <t>L'expression booléenne n'es pas comparée à true ou false. (Exemple d'erreur: x === true)</t>
+  </si>
+  <si>
+    <t>L150 server/app/services/client-utilities/game-sessions.service.ts, L52 server/app/services/dictionary-validation.service.ts, L108 server/app/services/letter-placement.service.ts</t>
   </si>
   <si>
     <t>6.2 Logique négative</t>
@@ -294,6 +313,9 @@
 La langue utilisée pour les commentaires doit être uniforme, mais peut être différente que la langue du code source.</t>
   </si>
   <si>
+    <t>baseDix?</t>
+  </si>
+  <si>
     <t>7.2 Commentaire</t>
   </si>
   <si>
@@ -334,6 +356,9 @@
 L'utilisation limitée de eslint:disable est tolérée dans les fichiers de test (.spec.ts). (Exemple : nombres magiques)</t>
   </si>
   <si>
+    <t>Lint disable sans justification</t>
+  </si>
+  <si>
     <t>7.7 Imbrication</t>
   </si>
   <si>
@@ -341,6 +366,9 @@
   </si>
   <si>
     <t>Pas utilisé en général</t>
+  </si>
+  <si>
+    <t>Très peu utilisé</t>
   </si>
   <si>
     <t>7.8 Performance</t>
@@ -477,19 +505,31 @@
     <t>2.6 Placer des lettres</t>
   </si>
   <si>
+    <t>cacher le marqueur de sens s'il n'y a pas de une case vide disponible dans la direction du déplacement. | Lorsqu'on essaye d'écrire en dehors de la grille ca selection les lettre du chevalet</t>
+  </si>
+  <si>
     <t>2.7 Échanger des lettres</t>
   </si>
   <si>
     <t>2.8 Commande réserve</t>
   </si>
   <si>
+    <t>Le système doit présenter un message d'erreur approprié dans la boîte de communication lors d'un problème avec la commande : erreur de syntaxe, commande impossible à réaliser ou entrée invalide.</t>
+  </si>
+  <si>
     <t>2.9 Manipuler les lettres du chevalet</t>
   </si>
   <si>
+    <t>permettre un seul type de sélection sur une lettre du chevalet à la fois.</t>
+  </si>
+  <si>
     <t>2.10 Commande indice</t>
   </si>
   <si>
     <t>Erreur de build  / déploiement erroné</t>
+  </si>
+  <si>
+    <t>Déploiement problematique</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
@@ -2738,15 +2778,15 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E34)</f>
-        <v>0</v>
+        <v>0.90199999999999991</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F60</f>
-        <v>0</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.87880000000000003</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2754,7 +2794,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>0</v>
+        <v>21.97</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2810,8 +2850,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2959,7 +2999,9 @@
         <v>17</v>
       </c>
       <c r="G8" s="233"/>
-      <c r="H8" s="46"/>
+      <c r="H8" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="I8" s="232" t="s">
         <v>17</v>
       </c>
@@ -2972,7 +3014,7 @@
       <c r="P8" s="40"/>
       <c r="Q8" s="40"/>
     </row>
-    <row r="9" spans="1:17" ht="75">
+    <row r="9" spans="1:17" ht="76.5">
       <c r="A9" s="29" t="s">
         <v>19</v>
       </c>
@@ -2988,7 +3030,9 @@
       <c r="E9" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="102"/>
+      <c r="F9" s="102">
+        <v>1</v>
+      </c>
       <c r="G9" s="99">
         <v>6</v>
       </c>
@@ -3005,7 +3049,7 @@
       <c r="P9" s="40"/>
       <c r="Q9" s="40"/>
     </row>
-    <row r="10" spans="1:17" ht="90">
+    <row r="10" spans="1:17" ht="91.5">
       <c r="A10" s="23" t="s">
         <v>22</v>
       </c>
@@ -3021,7 +3065,9 @@
       <c r="E10" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="102"/>
+      <c r="F10" s="102">
+        <v>1</v>
+      </c>
       <c r="G10" s="99">
         <v>2</v>
       </c>
@@ -3054,7 +3100,7 @@
       <c r="E11" s="49"/>
       <c r="F11" s="50">
         <f>SUMPRODUCT(F6:F10,G6:G10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G11" s="51">
         <f>SUM(G6:G10)</f>
@@ -3093,7 +3139,9 @@
         <v>17</v>
       </c>
       <c r="G12" s="233"/>
-      <c r="H12" s="46"/>
+      <c r="H12" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="I12" s="232" t="s">
         <v>17</v>
       </c>
@@ -3106,7 +3154,7 @@
       <c r="P12" s="43"/>
       <c r="Q12" s="43"/>
     </row>
-    <row r="13" spans="1:17" ht="30">
+    <row r="13" spans="1:17" ht="30.75">
       <c r="A13" s="29" t="s">
         <v>27</v>
       </c>
@@ -3120,7 +3168,9 @@
         <v>4</v>
       </c>
       <c r="E13" s="81"/>
-      <c r="F13" s="89"/>
+      <c r="F13" s="89">
+        <v>1</v>
+      </c>
       <c r="G13" s="90">
         <v>4</v>
       </c>
@@ -3133,7 +3183,7 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:17" ht="30">
+    <row r="14" spans="1:17" ht="30.75">
       <c r="A14" s="23" t="s">
         <v>29</v>
       </c>
@@ -3147,7 +3197,9 @@
         <v>2</v>
       </c>
       <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
+      <c r="F14" s="86">
+        <v>1</v>
+      </c>
       <c r="G14" s="87">
         <v>2</v>
       </c>
@@ -3176,11 +3228,15 @@
       <c r="E15" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="86"/>
+      <c r="F15" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G15" s="87">
         <v>3</v>
       </c>
-      <c r="H15" s="88"/>
+      <c r="H15" s="88" t="s">
+        <v>34</v>
+      </c>
       <c r="I15" s="76"/>
       <c r="J15" s="77">
         <v>3</v>
@@ -3189,12 +3245,12 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="195">
+    <row r="16" spans="1:17" ht="183">
       <c r="A16" s="23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="83">
         <v>0</v>
@@ -3203,13 +3259,17 @@
         <v>2</v>
       </c>
       <c r="E16" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="86"/>
+        <v>37</v>
+      </c>
+      <c r="F16" s="86">
+        <v>0.25</v>
+      </c>
       <c r="G16" s="87">
         <v>2</v>
       </c>
-      <c r="H16" s="88"/>
+      <c r="H16" s="88" t="s">
+        <v>38</v>
+      </c>
       <c r="I16" s="76"/>
       <c r="J16" s="77">
         <v>2</v>
@@ -3218,12 +3278,12 @@
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:17" ht="90">
+    <row r="17" spans="1:17" ht="76.5">
       <c r="A17" s="23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="83">
         <v>0.5</v>
@@ -3232,13 +3292,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="F17" s="86">
+        <v>0.5</v>
+      </c>
       <c r="G17" s="87">
         <v>4</v>
       </c>
-      <c r="H17" s="88"/>
+      <c r="H17" s="88" t="s">
+        <v>42</v>
+      </c>
       <c r="I17" s="76"/>
       <c r="J17" s="77">
         <v>4</v>
@@ -3263,7 +3327,7 @@
       <c r="E18" s="49"/>
       <c r="F18" s="50">
         <f>SUMPRODUCT(F13:F17,G13:G17)</f>
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="G18" s="51">
         <f>SUM(G13:G17)</f>
@@ -3288,7 +3352,7 @@
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
       <c r="A19" s="231" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" s="231"/>
       <c r="C19" s="232" t="s">
@@ -3302,7 +3366,9 @@
         <v>17</v>
       </c>
       <c r="G19" s="233"/>
-      <c r="H19" s="46"/>
+      <c r="H19" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="I19" s="232" t="s">
         <v>17</v>
       </c>
@@ -3311,12 +3377,12 @@
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
-    <row r="20" spans="1:17" ht="30">
+    <row r="20" spans="1:17" ht="30.75">
       <c r="A20" s="29" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C20" s="97">
         <v>1</v>
@@ -3325,7 +3391,9 @@
         <v>2</v>
       </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="82"/>
+      <c r="F20" s="82">
+        <v>1</v>
+      </c>
       <c r="G20" s="27">
         <v>2</v>
       </c>
@@ -3338,12 +3406,12 @@
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
-    <row r="21" spans="1:17" ht="75">
+    <row r="21" spans="1:17" ht="76.5">
       <c r="A21" s="23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C21" s="83">
         <v>0.75</v>
@@ -3352,9 +3420,11 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="86"/>
+        <v>48</v>
+      </c>
+      <c r="F21" s="86">
+        <v>1</v>
+      </c>
       <c r="G21" s="87">
         <v>3</v>
       </c>
@@ -3367,12 +3437,12 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
-    <row r="22" spans="1:17" ht="30">
+    <row r="22" spans="1:17" ht="30.75">
       <c r="A22" s="23" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C22" s="83">
         <v>1</v>
@@ -3381,7 +3451,9 @@
         <v>3</v>
       </c>
       <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
+      <c r="F22" s="86">
+        <v>1</v>
+      </c>
       <c r="G22" s="87">
         <v>3</v>
       </c>
@@ -3410,7 +3482,7 @@
       <c r="E23" s="59"/>
       <c r="F23" s="60">
         <f>SUMPRODUCT(F20:F22,G20:G22)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G23" s="61">
         <f>SUM(G20:G22)</f>
@@ -3431,7 +3503,7 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="45" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="232" t="s">
@@ -3445,7 +3517,9 @@
         <v>17</v>
       </c>
       <c r="G24" s="233"/>
-      <c r="H24" s="46"/>
+      <c r="H24" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="I24" s="232" t="s">
         <v>17</v>
       </c>
@@ -3454,12 +3528,12 @@
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
-    <row r="25" spans="1:17" ht="30">
+    <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C25" s="97">
         <v>1</v>
@@ -3468,7 +3542,9 @@
         <v>2</v>
       </c>
       <c r="E25" s="26"/>
-      <c r="F25" s="82"/>
+      <c r="F25" s="82">
+        <v>1</v>
+      </c>
       <c r="G25" s="27">
         <v>2</v>
       </c>
@@ -3483,10 +3559,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3495,7 +3571,9 @@
         <v>1</v>
       </c>
       <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
+      <c r="F26" s="86">
+        <v>1</v>
+      </c>
       <c r="G26" s="87">
         <v>1</v>
       </c>
@@ -3510,10 +3588,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C27" s="83">
         <v>1</v>
@@ -3522,7 +3600,9 @@
         <v>1</v>
       </c>
       <c r="E27" s="85"/>
-      <c r="F27" s="86"/>
+      <c r="F27" s="86">
+        <v>1</v>
+      </c>
       <c r="G27" s="87">
         <v>1</v>
       </c>
@@ -3551,7 +3631,7 @@
       <c r="E28" s="49"/>
       <c r="F28" s="60">
         <f>SUMPRODUCT(F25:F27,G25:G27)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G28" s="61">
         <f>SUM(G25:G27)</f>
@@ -3572,7 +3652,7 @@
     </row>
     <row r="29" spans="1:17" ht="21" customHeight="1">
       <c r="A29" s="231" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B29" s="231"/>
       <c r="C29" s="232" t="s">
@@ -3593,12 +3673,12 @@
       <c r="L29" s="9"/>
       <c r="M29" s="4"/>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:17" ht="75">
       <c r="A30" s="31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C30" s="79">
         <v>1</v>
@@ -3607,11 +3687,15 @@
         <v>2</v>
       </c>
       <c r="E30" s="81"/>
-      <c r="F30" s="89"/>
+      <c r="F30" s="89">
+        <v>0.9</v>
+      </c>
       <c r="G30" s="90">
         <v>2</v>
       </c>
-      <c r="H30" s="95"/>
+      <c r="H30" s="95" t="s">
+        <v>61</v>
+      </c>
       <c r="I30" s="92"/>
       <c r="J30" s="93">
         <v>2</v>
@@ -3622,10 +3706,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="24" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3634,7 +3718,9 @@
         <v>2</v>
       </c>
       <c r="E31" s="85"/>
-      <c r="F31" s="86"/>
+      <c r="F31" s="86">
+        <v>1</v>
+      </c>
       <c r="G31" s="87">
         <v>2</v>
       </c>
@@ -3649,10 +3735,10 @@
     </row>
     <row r="32" spans="1:17" ht="75">
       <c r="A32" s="24" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C32" s="83">
         <v>1</v>
@@ -3661,7 +3747,9 @@
         <v>2</v>
       </c>
       <c r="E32" s="85"/>
-      <c r="F32" s="86"/>
+      <c r="F32" s="86">
+        <v>1</v>
+      </c>
       <c r="G32" s="87">
         <v>2</v>
       </c>
@@ -3674,12 +3762,12 @@
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
-    <row r="33" spans="1:13" ht="30">
+    <row r="33" spans="1:13" ht="75">
       <c r="A33" s="24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C33" s="83">
         <v>1</v>
@@ -3688,11 +3776,15 @@
         <v>3</v>
       </c>
       <c r="E33" s="85"/>
-      <c r="F33" s="86"/>
+      <c r="F33" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G33" s="87">
         <v>3</v>
       </c>
-      <c r="H33" s="96"/>
+      <c r="H33" s="96" t="s">
+        <v>68</v>
+      </c>
       <c r="I33" s="76"/>
       <c r="J33" s="77">
         <v>3</v>
@@ -3717,7 +3809,7 @@
       <c r="E34" s="49"/>
       <c r="F34" s="50">
         <f>SUMPRODUCT(F30:F33,G30:G33)</f>
-        <v>0</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="G34" s="51">
         <f>SUM(G30:G33)</f>
@@ -3738,7 +3830,7 @@
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
       <c r="A35" s="239" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B35" s="239"/>
       <c r="C35" s="232" t="s">
@@ -3759,12 +3851,12 @@
       <c r="L35" s="8"/>
       <c r="M35" s="4"/>
     </row>
-    <row r="36" spans="1:13" ht="30">
+    <row r="36" spans="1:13" ht="135">
       <c r="A36" s="29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C36" s="79">
         <v>1</v>
@@ -3773,11 +3865,15 @@
         <v>2</v>
       </c>
       <c r="E36" s="81"/>
-      <c r="F36" s="89"/>
+      <c r="F36" s="89">
+        <v>0</v>
+      </c>
       <c r="G36" s="90">
         <v>2</v>
       </c>
-      <c r="H36" s="91"/>
+      <c r="H36" s="91" t="s">
+        <v>72</v>
+      </c>
       <c r="I36" s="92"/>
       <c r="J36" s="93">
         <v>2</v>
@@ -3788,10 +3884,10 @@
     </row>
     <row r="37" spans="1:13" ht="48.75" customHeight="1">
       <c r="A37" s="23" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C37" s="83">
         <v>0.8</v>
@@ -3800,9 +3896,11 @@
         <v>2</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="F37" s="86"/>
+        <v>75</v>
+      </c>
+      <c r="F37" s="86">
+        <v>1</v>
+      </c>
       <c r="G37" s="87">
         <v>2</v>
       </c>
@@ -3817,10 +3915,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C38" s="83">
         <v>1</v>
@@ -3829,7 +3927,9 @@
         <v>3</v>
       </c>
       <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
+      <c r="F38" s="86">
+        <v>1</v>
+      </c>
       <c r="G38" s="87">
         <v>3</v>
       </c>
@@ -3844,10 +3944,10 @@
     </row>
     <row r="39" spans="1:13" ht="112.5" customHeight="1">
       <c r="A39" s="23" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C39" s="83">
         <v>0.3</v>
@@ -3856,9 +3956,11 @@
         <v>3</v>
       </c>
       <c r="E39" s="85" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="86"/>
+        <v>80</v>
+      </c>
+      <c r="F39" s="86">
+        <v>1</v>
+      </c>
       <c r="G39" s="87">
         <v>3</v>
       </c>
@@ -3887,7 +3989,7 @@
       <c r="E40" s="49"/>
       <c r="F40" s="70">
         <f>SUMPRODUCT(F36:F39,G36:G39)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G40" s="51">
         <f>SUM(G36:G39)</f>
@@ -3908,7 +4010,7 @@
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
       <c r="A41" s="45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B41" s="45"/>
       <c r="C41" s="232" t="s">
@@ -3916,27 +4018,31 @@
       </c>
       <c r="D41" s="233"/>
       <c r="E41" s="66" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F41" s="232" t="s">
         <v>17</v>
       </c>
       <c r="G41" s="233"/>
-      <c r="H41" s="46"/>
+      <c r="H41" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="I41" s="232" t="s">
         <v>17</v>
       </c>
       <c r="J41" s="233"/>
-      <c r="K41" s="46"/>
+      <c r="K41" s="46" t="s">
+        <v>82</v>
+      </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" ht="60">
       <c r="A42" s="23" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -3945,11 +4051,15 @@
         <v>2</v>
       </c>
       <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="F42" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G42" s="87">
         <v>2</v>
       </c>
-      <c r="H42" s="88"/>
+      <c r="H42" s="88" t="s">
+        <v>85</v>
+      </c>
       <c r="I42" s="76"/>
       <c r="J42" s="77">
         <v>2</v>
@@ -3960,10 +4070,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C43" s="83">
         <v>0.5</v>
@@ -3972,9 +4082,11 @@
         <v>2</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>81</v>
-      </c>
-      <c r="F43" s="86"/>
+        <v>88</v>
+      </c>
+      <c r="F43" s="86">
+        <v>1</v>
+      </c>
       <c r="G43" s="87">
         <v>2</v>
       </c>
@@ -3989,10 +4101,10 @@
     </row>
     <row r="44" spans="1:13" ht="30">
       <c r="A44" s="23" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C44" s="83">
         <v>0.9</v>
@@ -4001,9 +4113,11 @@
         <v>2</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>84</v>
-      </c>
-      <c r="F44" s="86"/>
+        <v>91</v>
+      </c>
+      <c r="F44" s="86">
+        <v>1</v>
+      </c>
       <c r="G44" s="87">
         <v>2</v>
       </c>
@@ -4017,10 +4131,10 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="23" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -4029,7 +4143,9 @@
         <v>4</v>
       </c>
       <c r="E45" s="85"/>
-      <c r="F45" s="86"/>
+      <c r="F45" s="86">
+        <v>1</v>
+      </c>
       <c r="G45" s="87">
         <v>4</v>
       </c>
@@ -4044,10 +4160,10 @@
     </row>
     <row r="46" spans="1:13" ht="45">
       <c r="A46" s="23" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C46" s="83">
         <v>0</v>
@@ -4056,9 +4172,11 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>89</v>
-      </c>
-      <c r="F46" s="86"/>
+        <v>96</v>
+      </c>
+      <c r="F46" s="86">
+        <v>1</v>
+      </c>
       <c r="G46" s="87">
         <v>6</v>
       </c>
@@ -4073,10 +4191,10 @@
     </row>
     <row r="47" spans="1:13" ht="45">
       <c r="A47" s="23" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4085,11 +4203,15 @@
         <v>10</v>
       </c>
       <c r="E47" s="85"/>
-      <c r="F47" s="86"/>
+      <c r="F47" s="86">
+        <v>0.75</v>
+      </c>
       <c r="G47" s="87">
         <v>10</v>
       </c>
-      <c r="H47" s="88"/>
+      <c r="H47" s="88" t="s">
+        <v>99</v>
+      </c>
       <c r="I47" s="76"/>
       <c r="J47" s="77">
         <v>10</v>
@@ -4100,10 +4222,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="23" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C48" s="83">
         <v>0</v>
@@ -4112,13 +4234,17 @@
         <v>6</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="86"/>
+        <v>102</v>
+      </c>
+      <c r="F48" s="86">
+        <v>0.1</v>
+      </c>
       <c r="G48" s="87">
         <v>6</v>
       </c>
-      <c r="H48" s="88"/>
+      <c r="H48" s="88" t="s">
+        <v>103</v>
+      </c>
       <c r="I48" s="76"/>
       <c r="J48" s="77">
         <v>6</v>
@@ -4129,10 +4255,10 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C49" s="83">
         <v>1</v>
@@ -4141,7 +4267,9 @@
         <v>3</v>
       </c>
       <c r="E49" s="85"/>
-      <c r="F49" s="86"/>
+      <c r="F49" s="86">
+        <v>1</v>
+      </c>
       <c r="G49" s="87">
         <v>3</v>
       </c>
@@ -4170,7 +4298,7 @@
       <c r="E50" s="59"/>
       <c r="F50" s="70">
         <f>SUMPRODUCT(F42:F49,G42:G49)</f>
-        <v>0</v>
+        <v>26.6</v>
       </c>
       <c r="G50" s="51">
         <f>SUM(G42:G49)</f>
@@ -4195,7 +4323,7 @@
     </row>
     <row r="51" spans="1:17" ht="18.399999999999999" customHeight="1">
       <c r="A51" s="239" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B51" s="239"/>
       <c r="C51" s="232" t="s">
@@ -4218,10 +4346,10 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="29" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C52" s="79">
         <v>1</v>
@@ -4230,7 +4358,9 @@
         <v>2</v>
       </c>
       <c r="E52" s="81"/>
-      <c r="F52" s="82"/>
+      <c r="F52" s="82">
+        <v>1</v>
+      </c>
       <c r="G52" s="27">
         <v>2</v>
       </c>
@@ -4245,10 +4375,10 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="23" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4257,7 +4387,9 @@
         <v>2</v>
       </c>
       <c r="E53" s="85"/>
-      <c r="F53" s="86"/>
+      <c r="F53" s="86">
+        <v>1</v>
+      </c>
       <c r="G53" s="87">
         <v>2</v>
       </c>
@@ -4272,10 +4404,10 @@
     </row>
     <row r="54" spans="1:17" ht="30">
       <c r="A54" s="23" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4284,7 +4416,9 @@
         <v>1</v>
       </c>
       <c r="E54" s="85"/>
-      <c r="F54" s="86"/>
+      <c r="F54" s="86">
+        <v>1</v>
+      </c>
       <c r="G54" s="87">
         <v>1</v>
       </c>
@@ -4299,10 +4433,10 @@
     </row>
     <row r="55" spans="1:17" ht="60">
       <c r="A55" s="23" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C55" s="83">
         <v>0.75</v>
@@ -4311,9 +4445,11 @@
         <v>4</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>106</v>
-      </c>
-      <c r="F55" s="86"/>
+        <v>115</v>
+      </c>
+      <c r="F55" s="86">
+        <v>1</v>
+      </c>
       <c r="G55" s="87">
         <v>4</v>
       </c>
@@ -4328,10 +4464,10 @@
     </row>
     <row r="56" spans="1:17" ht="30">
       <c r="A56" s="23" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C56" s="83">
         <v>0.5</v>
@@ -4340,9 +4476,11 @@
         <v>2</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>109</v>
-      </c>
-      <c r="F56" s="86"/>
+        <v>118</v>
+      </c>
+      <c r="F56" s="86">
+        <v>1</v>
+      </c>
       <c r="G56" s="87">
         <v>2</v>
       </c>
@@ -4371,7 +4509,7 @@
       <c r="E57" s="59"/>
       <c r="F57" s="60">
         <f>SUMPRODUCT(F52:F56,G52:G56)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G57" s="61">
         <f>SUM(G52:G56)</f>
@@ -4409,7 +4547,7 @@
     </row>
     <row r="59" spans="1:17">
       <c r="A59" s="249" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="B59" s="250"/>
       <c r="C59" s="34">
@@ -4423,7 +4561,7 @@
       <c r="E59" s="26"/>
       <c r="F59" s="35">
         <f>F18+F23+F28+F34+F40+F50+F57+F11</f>
-        <v>0</v>
+        <v>84.4</v>
       </c>
       <c r="G59" s="27">
         <f>G11+G18+G23+G28+G34+G40+G50+G57</f>
@@ -4444,7 +4582,7 @@
     </row>
     <row r="60" spans="1:17" s="44" customFormat="1" ht="15.75">
       <c r="A60" s="251" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="B60" s="252"/>
       <c r="C60" s="253">
@@ -4455,7 +4593,7 @@
       <c r="E60" s="255"/>
       <c r="F60" s="256">
         <f>F59/G59</f>
-        <v>0</v>
+        <v>0.84400000000000008</v>
       </c>
       <c r="G60" s="257"/>
       <c r="H60" s="258"/>
@@ -4542,8 +4680,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:G20"/>
+    <sheetView topLeftCell="B23" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4579,7 +4717,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4602,19 +4740,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>17</v>
@@ -4625,7 +4763,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4645,7 +4783,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4665,7 +4803,7 @@
     </row>
     <row r="10" spans="1:7" ht="60">
       <c r="A10" s="133" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B10" s="134">
         <v>0.92</v>
@@ -4682,12 +4820,12 @@
       </c>
       <c r="F10" s="134"/>
       <c r="G10" s="220" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="136" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B11" s="137">
         <v>0.95</v>
@@ -4704,12 +4842,12 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -4729,7 +4867,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="133" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -4749,7 +4887,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="B14" s="137">
         <v>1</v>
@@ -4769,7 +4907,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="133" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B15" s="134">
         <v>1</v>
@@ -4789,7 +4927,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="136" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="B16" s="137">
         <v>1</v>
@@ -4809,7 +4947,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="139" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B17" s="140">
         <v>1</v>
@@ -4829,7 +4967,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="142" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B18" s="272"/>
       <c r="C18" s="272"/>
@@ -4846,7 +4984,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="146" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B19" s="147" t="s">
         <v>14</v>
@@ -4856,7 +4994,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F19" s="148"/>
       <c r="G19" s="149" t="s">
@@ -4865,7 +5003,7 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="150" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B20" s="221">
         <v>0.35</v>
@@ -4880,12 +5018,12 @@
       </c>
       <c r="F20" s="221"/>
       <c r="G20" s="223" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="151" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="B21" s="152">
         <v>0</v>
@@ -4914,19 +5052,19 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="155" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B23" s="156" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="156" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D23" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="156" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F23" s="156" t="s">
         <v>17</v>
@@ -4937,207 +5075,213 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="158" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B24" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="159">
         <v>20</v>
       </c>
       <c r="E24" s="159">
         <f>B24*C24*D24</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="F24" s="159"/>
       <c r="G24" s="160"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="161" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="B25" s="162">
-        <v>0</v>
-      </c>
-      <c r="C25" s="162">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C25" s="159">
+        <v>1</v>
       </c>
       <c r="D25" s="162">
         <v>6</v>
       </c>
       <c r="E25" s="162">
         <f t="shared" ref="E25:E33" si="1">B25*C25*D25</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F25" s="162"/>
       <c r="G25" s="163"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="158" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B26" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="159">
         <v>12</v>
       </c>
       <c r="E26" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F26" s="159"/>
       <c r="G26" s="160"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="161" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="B27" s="162">
-        <v>0</v>
-      </c>
-      <c r="C27" s="162">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C27" s="159">
+        <v>1</v>
       </c>
       <c r="D27" s="162">
         <v>8</v>
       </c>
       <c r="E27" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F27" s="162"/>
       <c r="G27" s="163"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="158" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B28" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C28" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="159">
         <v>6</v>
       </c>
       <c r="E28" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F28" s="159"/>
       <c r="G28" s="160"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="161" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="B29" s="162">
-        <v>0</v>
-      </c>
-      <c r="C29" s="162">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="C29" s="159">
+        <v>1</v>
       </c>
       <c r="D29" s="162">
         <v>14</v>
       </c>
       <c r="E29" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.6</v>
       </c>
       <c r="F29" s="162"/>
-      <c r="G29" s="163"/>
+      <c r="G29" s="163" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="158" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B30" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C30" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="159">
         <v>12</v>
       </c>
       <c r="E30" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F30" s="159"/>
       <c r="G30" s="160"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="161" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B31" s="162">
-        <v>0</v>
-      </c>
-      <c r="C31" s="162">
-        <v>0</v>
+        <v>0.9</v>
+      </c>
+      <c r="C31" s="159">
+        <v>1</v>
       </c>
       <c r="D31" s="162">
         <v>4</v>
       </c>
       <c r="E31" s="162">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F31" s="162"/>
-      <c r="G31" s="163"/>
+      <c r="G31" s="163" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="158" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B32" s="159">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="C32" s="159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="159">
         <v>10</v>
       </c>
       <c r="E32" s="159">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="F32" s="159"/>
-      <c r="G32" s="160"/>
+      <c r="G32" s="160" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="164" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B33" s="165">
-        <v>0</v>
-      </c>
-      <c r="C33" s="165">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="159">
+        <v>1</v>
       </c>
       <c r="D33" s="165">
         <v>8</v>
       </c>
       <c r="E33" s="165">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F33" s="165"/>
       <c r="G33" s="166"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="167" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B34" s="168"/>
       <c r="C34" s="168"/>
@@ -5147,14 +5291,14 @@
       </c>
       <c r="E34" s="169">
         <f>(SUM(E24:E33) + E36+E37+E38)/D34</f>
-        <v>0</v>
+        <v>0.90199999999999991</v>
       </c>
       <c r="F34" s="169"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="171" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B35" s="172" t="s">
         <v>14</v>
@@ -5164,7 +5308,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="173" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F35" s="173"/>
       <c r="G35" s="174" t="s">
@@ -5173,7 +5317,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="175" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B36" s="176">
         <v>0</v>
@@ -5191,10 +5335,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="179" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B37" s="180">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C37" s="180"/>
       <c r="D37" s="181">
@@ -5202,14 +5346,16 @@
       </c>
       <c r="E37" s="180">
         <f>B37*D37</f>
-        <v>0</v>
+        <v>-7.5</v>
       </c>
       <c r="F37" s="180"/>
-      <c r="G37" s="182"/>
+      <c r="G37" s="182" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="183" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B38" s="184">
         <v>0</v>
@@ -5238,19 +5384,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="187" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="B40" s="188" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="188" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="D40" s="188" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="188" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F40" s="188" t="s">
         <v>17</v>
@@ -5261,7 +5407,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="190" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="B41" s="191">
         <v>0</v>
@@ -5281,7 +5427,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="193" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="B42" s="194">
         <v>0</v>
@@ -5301,7 +5447,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="190" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="B43" s="191">
         <v>0</v>
@@ -5321,7 +5467,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="193" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="B44" s="194">
         <v>0</v>
@@ -5341,7 +5487,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="190" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="B45" s="191">
         <v>0</v>
@@ -5361,7 +5507,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="193" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="B46" s="194">
         <v>0</v>
@@ -5381,7 +5527,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="190" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B47" s="191">
         <v>0</v>
@@ -5401,7 +5547,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="193" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B48" s="194">
         <v>0</v>
@@ -5421,7 +5567,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="196" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="B49" s="197">
         <v>0</v>
@@ -5441,7 +5587,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="199" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="B50" s="200"/>
       <c r="C50" s="200"/>
@@ -5458,7 +5604,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="203" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B51" s="204" t="s">
         <v>14</v>
@@ -5468,7 +5614,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="205" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="F51" s="205"/>
       <c r="G51" s="206" t="s">
@@ -5477,7 +5623,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="207" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B52" s="208">
         <v>0</v>
@@ -5495,7 +5641,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="211" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="B53" s="212">
         <v>0</v>
@@ -5513,7 +5659,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="215" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="B54" s="216">
         <v>0</v>
@@ -5556,12 +5702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -5570,7 +5710,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B41E0342602C49449CD93109DBCAB8C5" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4cab946e3812a26735e8b0dc00d59aca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d3ea4e87-b30d-4ccc-9564-7710f23c54f0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="afa808ced5dc9827eedaaa69eb8b35dd" ns2:_="">
     <xsd:import namespace="d3ea4e87-b30d-4ccc-9564-7710f23c54f0"/>
@@ -5702,14 +5842,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD1971BE-1E76-44E5-BF52-2DB1BB889C58}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
--- a/Equipe107.xlsx
+++ b/Equipe107.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="188" documentId="8_{A9B08717-0A78-4896-A8AA-F48CA0C7A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24B13020-D173-45C3-B341-E1EE8E593130}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="8_{A9B08717-0A78-4896-A8AA-F48CA0C7A758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDA084A8-09C4-40DF-BF85-6D900D14B612}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sommaire" sheetId="9" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="174">
   <si>
     <t>Fonct.</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>MultiplayerCreatePageComponent.gameMode, Word.isHorizontal, Word.points, auraient pu être privés</t>
+  </si>
+  <si>
+    <t>Les ViewChild peuvent être privés</t>
   </si>
   <si>
     <t>2.5 Valeur par défaut</t>
@@ -254,6 +257,9 @@
 La variable a un nom clair et précis.</t>
   </si>
   <si>
+    <t>client/src/app/services/letter-placement.service.ts L164: la constante devrait etre en camelCase</t>
+  </si>
+  <si>
     <t>5.4 Constante</t>
   </si>
   <si>
@@ -273,6 +279,9 @@
   </si>
   <si>
     <t>L150 server/app/services/client-utilities/game-sessions.service.ts, L52 server/app/services/dictionary-validation.service.ts, L108 server/app/services/letter-placement.service.ts</t>
+  </si>
+  <si>
+    <t>L150 server/app/services/client-utilities/game-sessions.service.ts, L63 server/app/classes/letter-placement.class.ts</t>
   </si>
   <si>
     <t>6.2 Logique négative</t>
@@ -338,6 +347,9 @@
   </si>
   <si>
     <t>Le code n'utilise pas d'objets anonymes JS et priorise les classes et les interfaces.</t>
+  </si>
+  <si>
+    <t>Utilisation de any. Quand un observable ne renvoie rien le type serait void</t>
   </si>
   <si>
     <t>7.5 Duplication</t>
@@ -529,7 +541,7 @@
     <t>Erreur de build  / déploiement erroné</t>
   </si>
   <si>
-    <t>Déploiement problematique</t>
+    <t>nnnicinfqhfvhf</t>
   </si>
   <si>
     <t>Anciennes fonctionnalités brisées</t>
@@ -541,6 +553,9 @@
     <t>3.2 Mode admin</t>
   </si>
   <si>
+    <t>Le systeme ne gere pas le cas où le server est down</t>
+  </si>
+  <si>
     <t>3.3. Joueur Virtuel expert</t>
   </si>
   <si>
@@ -551,6 +566,9 @@
   </si>
   <si>
     <t>3. Téléverser un nouveau dictionnaire</t>
+  </si>
+  <si>
+    <t>Un dictionnaire invalide ne donne pas de message à l'utilisateur dans certains cas. Le systeme ne gere pas le cas où le server est down</t>
   </si>
   <si>
     <t>3.7 Paramètres de partie - dictionnaire</t>
@@ -1516,7 +1534,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="276">
+  <cellXfs count="278">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2165,6 +2183,108 @@
     <xf numFmtId="0" fontId="14" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2189,104 +2309,8 @@
     <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="13" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="8" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="9" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="10" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2713,7 +2737,7 @@
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2778,7 +2802,7 @@
       </c>
       <c r="B5" s="113">
         <f>(Fonctionnalités!E34)</f>
-        <v>0.90199999999999991</v>
+        <v>0.97699999999999987</v>
       </c>
       <c r="C5" s="113">
         <f>'Assurance Qualité'!F60</f>
@@ -2786,7 +2810,7 @@
       </c>
       <c r="D5" s="113">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0.87880000000000003</v>
+        <v>0.92379999999999995</v>
       </c>
       <c r="E5" s="114"/>
       <c r="F5" s="115">
@@ -2794,7 +2818,7 @@
       </c>
       <c r="G5" s="116">
         <f t="shared" ref="G5:G7" si="1">D5*F5</f>
-        <v>21.97</v>
+        <v>23.094999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -2803,15 +2827,15 @@
       </c>
       <c r="B6" s="118">
         <f>(Fonctionnalités!E50)</f>
-        <v>0</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="C6" s="118">
         <f>'Assurance Qualité'!I60</f>
-        <v>0</v>
+        <v>0.89500000000000002</v>
       </c>
       <c r="D6" s="118">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.93880000000000008</v>
       </c>
       <c r="E6" s="119"/>
       <c r="F6" s="120">
@@ -2819,7 +2843,7 @@
       </c>
       <c r="G6" s="121">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.776000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -2829,7 +2853,7 @@
       <c r="B7" s="122"/>
       <c r="C7" s="122"/>
       <c r="D7" s="123">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="E7" s="124"/>
       <c r="F7" s="122">
@@ -2837,7 +2861,7 @@
       </c>
       <c r="G7" s="125">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>
@@ -2850,8 +2874,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2870,36 +2894,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A2" s="224" t="s">
+      <c r="A2" s="258" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="224"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="224"/>
-      <c r="J2" s="224"/>
-      <c r="K2" s="224"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="258"/>
+      <c r="K2" s="258"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="4" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A4" s="225" t="s">
+      <c r="A4" s="259" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="225"/>
-      <c r="C4" s="225"/>
-      <c r="D4" s="225"/>
-      <c r="E4" s="225"/>
-      <c r="F4" s="225"/>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
+      <c r="B4" s="259"/>
+      <c r="C4" s="259"/>
+      <c r="D4" s="259"/>
+      <c r="E4" s="259"/>
+      <c r="F4" s="259"/>
+      <c r="G4" s="259"/>
+      <c r="H4" s="259"/>
+      <c r="I4" s="259"/>
+      <c r="J4" s="259"/>
+      <c r="K4" s="259"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
@@ -2919,36 +2943,36 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A6" s="242" t="s">
+      <c r="A6" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="263" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="244" t="s">
+      <c r="C6" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="245"/>
-      <c r="E6" s="245"/>
-      <c r="F6" s="246" t="s">
+      <c r="D6" s="254"/>
+      <c r="E6" s="254"/>
+      <c r="F6" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="247"/>
-      <c r="H6" s="248"/>
-      <c r="I6" s="226" t="s">
+      <c r="G6" s="256"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="260" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="227"/>
-      <c r="K6" s="228"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="262"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="240"/>
-      <c r="O6" s="241"/>
-      <c r="P6" s="241"/>
+      <c r="N6" s="249"/>
+      <c r="O6" s="250"/>
+      <c r="P6" s="250"/>
     </row>
     <row r="7" spans="1:17" ht="18.75">
-      <c r="A7" s="243"/>
-      <c r="B7" s="230"/>
+      <c r="A7" s="252"/>
+      <c r="B7" s="264"/>
       <c r="C7" s="14" t="s">
         <v>14</v>
       </c>
@@ -2984,29 +3008,31 @@
       <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:17" ht="18.75">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="233" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="232" t="s">
+      <c r="B8" s="233"/>
+      <c r="C8" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="233"/>
+      <c r="D8" s="227"/>
       <c r="E8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="232" t="s">
+      <c r="F8" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="233"/>
+      <c r="G8" s="227"/>
       <c r="H8" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="232" t="s">
+      <c r="I8" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="233"/>
-      <c r="K8" s="46"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
       <c r="N8" s="40"/>
@@ -3037,7 +3063,9 @@
         <v>6</v>
       </c>
       <c r="H9" s="103"/>
-      <c r="I9" s="104"/>
+      <c r="I9" s="104">
+        <v>1</v>
+      </c>
       <c r="J9" s="105">
         <v>6</v>
       </c>
@@ -3072,7 +3100,9 @@
         <v>2</v>
       </c>
       <c r="H10" s="103"/>
-      <c r="I10" s="104"/>
+      <c r="I10" s="104">
+        <v>1</v>
+      </c>
       <c r="J10" s="105">
         <v>2</v>
       </c>
@@ -3085,10 +3115,10 @@
       <c r="Q10" s="40"/>
     </row>
     <row r="11" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A11" s="234" t="s">
+      <c r="A11" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="235"/>
+      <c r="B11" s="229"/>
       <c r="C11" s="47">
         <f>SUMPRODUCT(C6:C10,D6:D10)</f>
         <v>5.4</v>
@@ -3109,7 +3139,7 @@
       <c r="H11" s="52"/>
       <c r="I11" s="53">
         <f>SUMPRODUCT(I6:I10,J6:J10)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J11" s="54">
         <f>SUM(J6:J10)</f>
@@ -3124,29 +3154,31 @@
       <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" s="12" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A12" s="239" t="s">
+      <c r="A12" s="233" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="239"/>
-      <c r="C12" s="232" t="s">
+      <c r="B12" s="233"/>
+      <c r="C12" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="233"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="232" t="s">
+      <c r="F12" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="233"/>
+      <c r="G12" s="227"/>
       <c r="H12" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="232" t="s">
+      <c r="I12" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="233"/>
-      <c r="K12" s="46"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="43"/>
@@ -3175,7 +3207,9 @@
         <v>4</v>
       </c>
       <c r="H13" s="91"/>
-      <c r="I13" s="92"/>
+      <c r="I13" s="92">
+        <v>1</v>
+      </c>
       <c r="J13" s="93">
         <v>4</v>
       </c>
@@ -3204,7 +3238,9 @@
         <v>2</v>
       </c>
       <c r="H14" s="88"/>
-      <c r="I14" s="76"/>
+      <c r="I14" s="76">
+        <v>1</v>
+      </c>
       <c r="J14" s="77">
         <v>2</v>
       </c>
@@ -3237,7 +3273,9 @@
       <c r="H15" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="76"/>
+      <c r="I15" s="76">
+        <v>1</v>
+      </c>
       <c r="J15" s="77">
         <v>3</v>
       </c>
@@ -3270,20 +3308,24 @@
       <c r="H16" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="76">
+        <v>0.75</v>
+      </c>
       <c r="J16" s="77">
         <v>2</v>
       </c>
-      <c r="K16" s="78"/>
+      <c r="K16" s="78" t="s">
+        <v>39</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" spans="1:17" ht="76.5">
       <c r="A17" s="23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C17" s="83">
         <v>0.5</v>
@@ -3292,7 +3334,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="86">
         <v>0.5</v>
@@ -3301,9 +3343,11 @@
         <v>4</v>
       </c>
       <c r="H17" s="88" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="76"/>
+        <v>43</v>
+      </c>
+      <c r="I17" s="76">
+        <v>1</v>
+      </c>
       <c r="J17" s="77">
         <v>4</v>
       </c>
@@ -3312,10 +3356,10 @@
       <c r="M17" s="5"/>
     </row>
     <row r="18" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A18" s="234" t="s">
+      <c r="A18" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="235"/>
+      <c r="B18" s="229"/>
       <c r="C18" s="47">
         <f>SUMPRODUCT(C13:C17,D13:D17)</f>
         <v>8</v>
@@ -3336,7 +3380,7 @@
       <c r="H18" s="52"/>
       <c r="I18" s="53">
         <f>SUMPRODUCT(I13:I17,J13:J17)</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="J18" s="54">
         <f>SUM(J13:J17)</f>
@@ -3351,38 +3395,40 @@
       <c r="Q18" s="44"/>
     </row>
     <row r="19" spans="1:17" s="43" customFormat="1" ht="18.399999999999999" customHeight="1">
-      <c r="A19" s="231" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="231"/>
-      <c r="C19" s="232" t="s">
+      <c r="A19" s="265" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="265"/>
+      <c r="C19" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="233"/>
+      <c r="D19" s="227"/>
       <c r="E19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="232" t="s">
+      <c r="F19" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G19" s="233"/>
+      <c r="G19" s="227"/>
       <c r="H19" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="232" t="s">
+      <c r="I19" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J19" s="233"/>
-      <c r="K19" s="46"/>
+      <c r="J19" s="227"/>
+      <c r="K19" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:17" ht="30.75">
       <c r="A20" s="29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C20" s="97">
         <v>1</v>
@@ -3398,7 +3444,9 @@
         <v>2</v>
       </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="73"/>
+      <c r="I20" s="73">
+        <v>1</v>
+      </c>
       <c r="J20" s="74">
         <v>2</v>
       </c>
@@ -3408,10 +3456,10 @@
     </row>
     <row r="21" spans="1:17" ht="76.5">
       <c r="A21" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="83">
         <v>0.75</v>
@@ -3420,7 +3468,7 @@
         <v>3</v>
       </c>
       <c r="E21" s="85" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F21" s="86">
         <v>1</v>
@@ -3429,7 +3477,9 @@
         <v>3</v>
       </c>
       <c r="H21" s="88"/>
-      <c r="I21" s="76"/>
+      <c r="I21" s="76">
+        <v>1</v>
+      </c>
       <c r="J21" s="77">
         <v>3</v>
       </c>
@@ -3439,10 +3489,10 @@
     </row>
     <row r="22" spans="1:17" ht="30.75">
       <c r="A22" s="23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C22" s="83">
         <v>1</v>
@@ -3458,7 +3508,9 @@
         <v>3</v>
       </c>
       <c r="H22" s="88"/>
-      <c r="I22" s="76"/>
+      <c r="I22" s="76">
+        <v>1</v>
+      </c>
       <c r="J22" s="77">
         <v>3</v>
       </c>
@@ -3467,10 +3519,10 @@
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A23" s="236" t="s">
+      <c r="A23" s="266" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="237"/>
+      <c r="B23" s="248"/>
       <c r="C23" s="57">
         <f>SUMPRODUCT(C20:C22,D20:D22)</f>
         <v>7.25</v>
@@ -3491,7 +3543,7 @@
       <c r="H23" s="62"/>
       <c r="I23" s="63">
         <f>SUMPRODUCT(I20:I22,J20:J22)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J23" s="64">
         <f>SUM(J20:J22)</f>
@@ -3503,37 +3555,39 @@
     </row>
     <row r="24" spans="1:17" ht="18.75" customHeight="1">
       <c r="A24" s="45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B24" s="45"/>
-      <c r="C24" s="232" t="s">
+      <c r="C24" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="233"/>
+      <c r="D24" s="227"/>
       <c r="E24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="232" t="s">
+      <c r="F24" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="233"/>
+      <c r="G24" s="227"/>
       <c r="H24" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="232" t="s">
+      <c r="I24" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J24" s="233"/>
-      <c r="K24" s="46"/>
+      <c r="J24" s="227"/>
+      <c r="K24" s="46" t="s">
+        <v>18</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
     <row r="25" spans="1:17" ht="30.75">
       <c r="A25" s="42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B25" s="42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" s="97">
         <v>1</v>
@@ -3549,7 +3603,9 @@
         <v>2</v>
       </c>
       <c r="H25" s="28"/>
-      <c r="I25" s="73"/>
+      <c r="I25" s="73">
+        <v>1</v>
+      </c>
       <c r="J25" s="74">
         <v>2</v>
       </c>
@@ -3559,10 +3615,10 @@
     </row>
     <row r="26" spans="1:17">
       <c r="A26" s="23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B26" s="23" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" s="83">
         <v>1</v>
@@ -3578,7 +3634,9 @@
         <v>1</v>
       </c>
       <c r="H26" s="88"/>
-      <c r="I26" s="76"/>
+      <c r="I26" s="76">
+        <v>1</v>
+      </c>
       <c r="J26" s="77">
         <v>1</v>
       </c>
@@ -3588,10 +3646,10 @@
     </row>
     <row r="27" spans="1:17">
       <c r="A27" s="23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" s="83">
         <v>1</v>
@@ -3607,7 +3665,9 @@
         <v>1</v>
       </c>
       <c r="H27" s="88"/>
-      <c r="I27" s="76"/>
+      <c r="I27" s="76">
+        <v>1</v>
+      </c>
       <c r="J27" s="77">
         <v>1</v>
       </c>
@@ -3616,10 +3676,10 @@
       <c r="M27" s="5"/>
     </row>
     <row r="28" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="237"/>
+      <c r="B28" s="248"/>
       <c r="C28" s="47">
         <f>SUMPRODUCT(C25:C27,D25:D27)</f>
         <v>4</v>
@@ -3640,7 +3700,7 @@
       <c r="H28" s="62"/>
       <c r="I28" s="63">
         <f>SUMPRODUCT(I25:I27,J25:J27)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J28" s="64">
         <f>SUM(J25:J27)</f>
@@ -3651,34 +3711,34 @@
       <c r="M28" s="56"/>
     </row>
     <row r="29" spans="1:17" ht="21" customHeight="1">
-      <c r="A29" s="231" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="231"/>
-      <c r="C29" s="232" t="s">
+      <c r="A29" s="265" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="265"/>
+      <c r="C29" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="233"/>
+      <c r="D29" s="227"/>
       <c r="E29" s="46"/>
-      <c r="F29" s="232" t="s">
+      <c r="F29" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="233"/>
+      <c r="G29" s="227"/>
       <c r="H29" s="66"/>
-      <c r="I29" s="232" t="s">
+      <c r="I29" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="233"/>
+      <c r="J29" s="227"/>
       <c r="K29" s="46"/>
       <c r="L29" s="9"/>
       <c r="M29" s="4"/>
     </row>
     <row r="30" spans="1:17" ht="75">
       <c r="A30" s="31" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C30" s="79">
         <v>1</v>
@@ -3694,9 +3754,11 @@
         <v>2</v>
       </c>
       <c r="H30" s="95" t="s">
-        <v>61</v>
-      </c>
-      <c r="I30" s="92"/>
+        <v>62</v>
+      </c>
+      <c r="I30" s="92">
+        <v>1</v>
+      </c>
       <c r="J30" s="93">
         <v>2</v>
       </c>
@@ -3706,10 +3768,10 @@
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C31" s="83">
         <v>1</v>
@@ -3725,7 +3787,9 @@
         <v>2</v>
       </c>
       <c r="H31" s="96"/>
-      <c r="I31" s="76"/>
+      <c r="I31" s="76">
+        <v>1</v>
+      </c>
       <c r="J31" s="77">
         <v>2</v>
       </c>
@@ -3735,10 +3799,10 @@
     </row>
     <row r="32" spans="1:17" ht="75">
       <c r="A32" s="24" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C32" s="83">
         <v>1</v>
@@ -3754,20 +3818,24 @@
         <v>2</v>
       </c>
       <c r="H32" s="96"/>
-      <c r="I32" s="76"/>
+      <c r="I32" s="76">
+        <v>0.9</v>
+      </c>
       <c r="J32" s="77">
         <v>2</v>
       </c>
-      <c r="K32" s="78"/>
+      <c r="K32" s="78" t="s">
+        <v>67</v>
+      </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" ht="75">
       <c r="A33" s="24" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="83">
         <v>1</v>
@@ -3783,21 +3851,25 @@
         <v>3</v>
       </c>
       <c r="H33" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="I33" s="76"/>
+        <v>70</v>
+      </c>
+      <c r="I33" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J33" s="77">
         <v>3</v>
       </c>
-      <c r="K33" s="78"/>
+      <c r="K33" s="78" t="s">
+        <v>70</v>
+      </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
     </row>
     <row r="34" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A34" s="234" t="s">
+      <c r="A34" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="235"/>
+      <c r="B34" s="229"/>
       <c r="C34" s="47">
         <f>SUMPRODUCT(C30:C33,D30:D33)</f>
         <v>9</v>
@@ -3818,7 +3890,7 @@
       <c r="H34" s="67"/>
       <c r="I34" s="63">
         <f>SUMPRODUCT(I30:I33,J30:J33)</f>
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="J34" s="64">
         <f>SUM(J30:J33)</f>
@@ -3829,19 +3901,19 @@
       <c r="M34" s="56"/>
     </row>
     <row r="35" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A35" s="239" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="239"/>
-      <c r="C35" s="232" t="s">
+      <c r="A35" s="233" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="233"/>
+      <c r="C35" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D35" s="233"/>
+      <c r="D35" s="227"/>
       <c r="E35" s="46"/>
-      <c r="F35" s="232" t="s">
+      <c r="F35" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="233"/>
+      <c r="G35" s="227"/>
       <c r="H35" s="46"/>
       <c r="I35" s="68" t="s">
         <v>17</v>
@@ -3853,10 +3925,10 @@
     </row>
     <row r="36" spans="1:13" ht="135">
       <c r="A36" s="29" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" s="79">
         <v>1</v>
@@ -3872,22 +3944,26 @@
         <v>2</v>
       </c>
       <c r="H36" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="I36" s="92"/>
+        <v>74</v>
+      </c>
+      <c r="I36" s="92">
+        <v>0.25</v>
+      </c>
       <c r="J36" s="93">
         <v>2</v>
       </c>
-      <c r="K36" s="94"/>
+      <c r="K36" s="94" t="s">
+        <v>75</v>
+      </c>
       <c r="L36" s="5"/>
       <c r="M36" s="5"/>
     </row>
     <row r="37" spans="1:13" ht="48.75" customHeight="1">
       <c r="A37" s="23" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B37" s="23" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C37" s="83">
         <v>0.8</v>
@@ -3896,7 +3972,7 @@
         <v>2</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F37" s="86">
         <v>1</v>
@@ -3905,7 +3981,9 @@
         <v>2</v>
       </c>
       <c r="H37" s="88"/>
-      <c r="I37" s="76"/>
+      <c r="I37" s="76">
+        <v>1</v>
+      </c>
       <c r="J37" s="77">
         <v>2</v>
       </c>
@@ -3915,10 +3993,10 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="23" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B38" s="23" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C38" s="83">
         <v>1</v>
@@ -3934,7 +4012,9 @@
         <v>3</v>
       </c>
       <c r="H38" s="88"/>
-      <c r="I38" s="76"/>
+      <c r="I38" s="76">
+        <v>1</v>
+      </c>
       <c r="J38" s="77">
         <v>3</v>
       </c>
@@ -3944,10 +4024,10 @@
     </row>
     <row r="39" spans="1:13" ht="112.5" customHeight="1">
       <c r="A39" s="23" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B39" s="23" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C39" s="83">
         <v>0.3</v>
@@ -3956,7 +4036,7 @@
         <v>3</v>
       </c>
       <c r="E39" s="85" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F39" s="86">
         <v>1</v>
@@ -3965,7 +4045,9 @@
         <v>3</v>
       </c>
       <c r="H39" s="88"/>
-      <c r="I39" s="76"/>
+      <c r="I39" s="76">
+        <v>1</v>
+      </c>
       <c r="J39" s="77">
         <v>3</v>
       </c>
@@ -3974,10 +4056,10 @@
       <c r="M39" s="5"/>
     </row>
     <row r="40" spans="1:13" s="44" customFormat="1" ht="15.75">
-      <c r="A40" s="234" t="s">
+      <c r="A40" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="235"/>
+      <c r="B40" s="229"/>
       <c r="C40" s="69">
         <f>SUMPRODUCT(C36:C39,D36:D39)</f>
         <v>7.5</v>
@@ -3998,7 +4080,7 @@
       <c r="H40" s="52"/>
       <c r="I40" s="63">
         <f>SUMPRODUCT(I36:I39,J36:J39)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="J40" s="64">
         <f>SUM(J36:J39)</f>
@@ -4010,39 +4092,39 @@
     </row>
     <row r="41" spans="1:13" ht="18.75" customHeight="1">
       <c r="A41" s="45" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B41" s="45"/>
-      <c r="C41" s="232" t="s">
+      <c r="C41" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="233"/>
+      <c r="D41" s="227"/>
       <c r="E41" s="66" t="s">
-        <v>82</v>
-      </c>
-      <c r="F41" s="232" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G41" s="233"/>
+      <c r="G41" s="227"/>
       <c r="H41" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="I41" s="232" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="233"/>
+      <c r="J41" s="227"/>
       <c r="K41" s="46" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
     </row>
     <row r="42" spans="1:13" ht="60">
       <c r="A42" s="23" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B42" s="23" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C42" s="83">
         <v>1</v>
@@ -4058,9 +4140,11 @@
         <v>2</v>
       </c>
       <c r="H42" s="88" t="s">
-        <v>85</v>
-      </c>
-      <c r="I42" s="76"/>
+        <v>88</v>
+      </c>
+      <c r="I42" s="76">
+        <v>1</v>
+      </c>
       <c r="J42" s="77">
         <v>2</v>
       </c>
@@ -4070,10 +4154,10 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B43" s="23" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C43" s="83">
         <v>0.5</v>
@@ -4082,7 +4166,7 @@
         <v>2</v>
       </c>
       <c r="E43" s="85" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F43" s="86">
         <v>1</v>
@@ -4091,7 +4175,9 @@
         <v>2</v>
       </c>
       <c r="H43" s="88"/>
-      <c r="I43" s="76"/>
+      <c r="I43" s="76">
+        <v>1</v>
+      </c>
       <c r="J43" s="77">
         <v>2</v>
       </c>
@@ -4101,10 +4187,10 @@
     </row>
     <row r="44" spans="1:13" ht="30">
       <c r="A44" s="23" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="23" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C44" s="83">
         <v>0.9</v>
@@ -4113,7 +4199,7 @@
         <v>2</v>
       </c>
       <c r="E44" s="85" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F44" s="86">
         <v>1</v>
@@ -4122,19 +4208,21 @@
         <v>2</v>
       </c>
       <c r="H44" s="88"/>
-      <c r="I44" s="76"/>
+      <c r="I44" s="76">
+        <v>1</v>
+      </c>
       <c r="J44" s="77">
         <v>2</v>
       </c>
       <c r="K44" s="78"/>
       <c r="L44" s="5"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" ht="60">
       <c r="A45" s="23" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B45" s="23" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C45" s="83">
         <v>1</v>
@@ -4150,20 +4238,24 @@
         <v>4</v>
       </c>
       <c r="H45" s="88"/>
-      <c r="I45" s="76"/>
+      <c r="I45" s="76">
+        <v>0.5</v>
+      </c>
       <c r="J45" s="77">
         <v>4</v>
       </c>
-      <c r="K45" s="78"/>
+      <c r="K45" s="78" t="s">
+        <v>97</v>
+      </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
     </row>
     <row r="46" spans="1:13" ht="45">
       <c r="A46" s="23" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C46" s="83">
         <v>0</v>
@@ -4172,7 +4264,7 @@
         <v>6</v>
       </c>
       <c r="E46" s="85" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F46" s="86">
         <v>1</v>
@@ -4181,7 +4273,9 @@
         <v>6</v>
       </c>
       <c r="H46" s="88"/>
-      <c r="I46" s="76"/>
+      <c r="I46" s="76">
+        <v>1</v>
+      </c>
       <c r="J46" s="77">
         <v>6</v>
       </c>
@@ -4191,10 +4285,10 @@
     </row>
     <row r="47" spans="1:13" ht="45">
       <c r="A47" s="23" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C47" s="83">
         <v>1</v>
@@ -4210,9 +4304,11 @@
         <v>10</v>
       </c>
       <c r="H47" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="I47" s="76"/>
+        <v>103</v>
+      </c>
+      <c r="I47" s="76">
+        <v>1</v>
+      </c>
       <c r="J47" s="77">
         <v>10</v>
       </c>
@@ -4222,10 +4318,10 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="23" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C48" s="83">
         <v>0</v>
@@ -4234,7 +4330,7 @@
         <v>6</v>
       </c>
       <c r="E48" s="85" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F48" s="86">
         <v>0.1</v>
@@ -4243,9 +4339,11 @@
         <v>6</v>
       </c>
       <c r="H48" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="I48" s="76"/>
+        <v>107</v>
+      </c>
+      <c r="I48" s="76">
+        <v>0.2</v>
+      </c>
       <c r="J48" s="77">
         <v>6</v>
       </c>
@@ -4255,10 +4353,10 @@
     </row>
     <row r="49" spans="1:17">
       <c r="A49" s="13" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C49" s="83">
         <v>1</v>
@@ -4274,7 +4372,9 @@
         <v>3</v>
       </c>
       <c r="H49" s="88"/>
-      <c r="I49" s="76"/>
+      <c r="I49" s="76">
+        <v>1</v>
+      </c>
       <c r="J49" s="77">
         <v>3</v>
       </c>
@@ -4283,10 +4383,10 @@
       <c r="M49" s="5"/>
     </row>
     <row r="50" spans="1:17" s="30" customFormat="1" ht="15.75">
-      <c r="A50" s="234" t="s">
+      <c r="A50" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B50" s="235"/>
+      <c r="B50" s="229"/>
       <c r="C50" s="71">
         <f>SUMPRODUCT(C42:C49,D42:D49)</f>
         <v>21.8</v>
@@ -4307,7 +4407,7 @@
       <c r="H50" s="52"/>
       <c r="I50" s="53">
         <f>SUMPRODUCT(I42:I49,J42:J49)</f>
-        <v>0</v>
+        <v>28.2</v>
       </c>
       <c r="J50" s="54">
         <f>SUM(J42:J49)</f>
@@ -4322,34 +4422,34 @@
       <c r="Q50" s="44"/>
     </row>
     <row r="51" spans="1:17" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="239" t="s">
-        <v>106</v>
-      </c>
-      <c r="B51" s="239"/>
-      <c r="C51" s="232" t="s">
+      <c r="A51" s="233" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="233"/>
+      <c r="C51" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="D51" s="233"/>
+      <c r="D51" s="227"/>
       <c r="E51" s="46"/>
-      <c r="F51" s="232" t="s">
+      <c r="F51" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="G51" s="233"/>
+      <c r="G51" s="227"/>
       <c r="H51" s="46"/>
-      <c r="I51" s="232" t="s">
+      <c r="I51" s="226" t="s">
         <v>17</v>
       </c>
-      <c r="J51" s="233"/>
+      <c r="J51" s="227"/>
       <c r="K51" s="46"/>
       <c r="L51" s="8"/>
       <c r="M51" s="4"/>
     </row>
     <row r="52" spans="1:17">
       <c r="A52" s="29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C52" s="79">
         <v>1</v>
@@ -4365,7 +4465,9 @@
         <v>2</v>
       </c>
       <c r="H52" s="28"/>
-      <c r="I52" s="73"/>
+      <c r="I52" s="73">
+        <v>1</v>
+      </c>
       <c r="J52" s="74">
         <v>2</v>
       </c>
@@ -4375,10 +4477,10 @@
     </row>
     <row r="53" spans="1:17">
       <c r="A53" s="23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B53" s="23" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C53" s="83">
         <v>1</v>
@@ -4394,7 +4496,9 @@
         <v>2</v>
       </c>
       <c r="H53" s="88"/>
-      <c r="I53" s="76"/>
+      <c r="I53" s="76">
+        <v>1</v>
+      </c>
       <c r="J53" s="77">
         <v>2</v>
       </c>
@@ -4404,10 +4508,10 @@
     </row>
     <row r="54" spans="1:17" ht="30">
       <c r="A54" s="23" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B54" s="23" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C54" s="83">
         <v>1</v>
@@ -4423,7 +4527,9 @@
         <v>1</v>
       </c>
       <c r="H54" s="88"/>
-      <c r="I54" s="76"/>
+      <c r="I54" s="76">
+        <v>1</v>
+      </c>
       <c r="J54" s="77">
         <v>1</v>
       </c>
@@ -4433,10 +4539,10 @@
     </row>
     <row r="55" spans="1:17" ht="60">
       <c r="A55" s="23" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B55" s="23" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C55" s="83">
         <v>0.75</v>
@@ -4445,7 +4551,7 @@
         <v>4</v>
       </c>
       <c r="E55" s="85" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="F55" s="86">
         <v>1</v>
@@ -4454,7 +4560,9 @@
         <v>4</v>
       </c>
       <c r="H55" s="88"/>
-      <c r="I55" s="76"/>
+      <c r="I55" s="76">
+        <v>1</v>
+      </c>
       <c r="J55" s="77">
         <v>4</v>
       </c>
@@ -4464,10 +4572,10 @@
     </row>
     <row r="56" spans="1:17" ht="30">
       <c r="A56" s="23" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B56" s="23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C56" s="83">
         <v>0.5</v>
@@ -4476,7 +4584,7 @@
         <v>2</v>
       </c>
       <c r="E56" s="85" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="F56" s="86">
         <v>1</v>
@@ -4485,7 +4593,9 @@
         <v>2</v>
       </c>
       <c r="H56" s="88"/>
-      <c r="I56" s="76"/>
+      <c r="I56" s="76">
+        <v>1</v>
+      </c>
       <c r="J56" s="77">
         <v>2</v>
       </c>
@@ -4494,10 +4604,10 @@
       <c r="M56" s="5"/>
     </row>
     <row r="57" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A57" s="234" t="s">
+      <c r="A57" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="235"/>
+      <c r="B57" s="229"/>
       <c r="C57" s="57">
         <f>SUMPRODUCT(C52:C56,D52:D56)</f>
         <v>9</v>
@@ -4518,7 +4628,7 @@
       <c r="H57" s="62"/>
       <c r="I57" s="53">
         <f>SUMPRODUCT(I52:I56,J52:J56)</f>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J57" s="54">
         <f>SUM(J52:J56)</f>
@@ -4529,27 +4639,27 @@
       <c r="M57" s="56"/>
     </row>
     <row r="58" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A58" s="262" t="s">
+      <c r="A58" s="230" t="s">
         <v>2</v>
       </c>
-      <c r="B58" s="263"/>
-      <c r="C58" s="263"/>
-      <c r="D58" s="263"/>
-      <c r="E58" s="263"/>
-      <c r="F58" s="263"/>
-      <c r="G58" s="263"/>
-      <c r="H58" s="263"/>
-      <c r="I58" s="263"/>
-      <c r="J58" s="263"/>
-      <c r="K58" s="264"/>
+      <c r="B58" s="231"/>
+      <c r="C58" s="231"/>
+      <c r="D58" s="231"/>
+      <c r="E58" s="231"/>
+      <c r="F58" s="231"/>
+      <c r="G58" s="231"/>
+      <c r="H58" s="231"/>
+      <c r="I58" s="231"/>
+      <c r="J58" s="231"/>
+      <c r="K58" s="232"/>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
     </row>
     <row r="59" spans="1:17">
-      <c r="A59" s="249" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="250"/>
+      <c r="A59" s="234" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="235"/>
       <c r="C59" s="34">
         <f>C18+C23+C28+C34+C40+C50+C57+C11</f>
         <v>71.95</v>
@@ -4570,7 +4680,7 @@
       <c r="H59" s="28"/>
       <c r="I59" s="219">
         <f>I18+I23+I28+I34+I40+I50+I57+I11</f>
-        <v>0</v>
+        <v>89.5</v>
       </c>
       <c r="J59" s="32">
         <f>J11+J18+J23+J28+J34+J40+J50+J57</f>
@@ -4581,52 +4691,49 @@
       <c r="M59" s="5"/>
     </row>
     <row r="60" spans="1:17" s="44" customFormat="1" ht="15.75">
-      <c r="A60" s="251" t="s">
-        <v>120</v>
-      </c>
-      <c r="B60" s="252"/>
-      <c r="C60" s="253">
+      <c r="A60" s="236" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="237"/>
+      <c r="C60" s="238">
         <f>C59/D59</f>
         <v>0.71950000000000003</v>
       </c>
-      <c r="D60" s="254"/>
-      <c r="E60" s="255"/>
-      <c r="F60" s="256">
+      <c r="D60" s="239"/>
+      <c r="E60" s="240"/>
+      <c r="F60" s="241">
         <f>F59/G59</f>
         <v>0.84400000000000008</v>
       </c>
-      <c r="G60" s="257"/>
-      <c r="H60" s="258"/>
-      <c r="I60" s="259">
+      <c r="G60" s="242"/>
+      <c r="H60" s="243"/>
+      <c r="I60" s="244">
         <f>I59/J59</f>
-        <v>0</v>
-      </c>
-      <c r="J60" s="260"/>
-      <c r="K60" s="261"/>
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="J60" s="245"/>
+      <c r="K60" s="246"/>
       <c r="L60" s="72"/>
       <c r="M60" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="F60:H60"/>
-    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="C8:D8"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="N6:P6"/>
@@ -4643,22 +4750,25 @@
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="F60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A57:B57"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L18 L23 L28 L34 L40 L50 L11 C9:C10 F9:F10 I9:I10 C13:C17 F13:F17 I13:I17 C20:C22 F20:F22 I20:I22 C25:C27 F25:F27 I25:I27 C30:C33 F30:F33 I30:I33 C36:C39 F36:F39 I36:I39 C42:C49 F42:F49 I42:I49 C52:C56 F52:F56 I52:I56" xr:uid="{4A0D4DC8-F6F9-4765-AB49-E4E0ACDB1361}">
@@ -4680,8 +4790,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:G54"/>
   <sheetViews>
-    <sheetView topLeftCell="B23" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -4696,15 +4806,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18.75">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="267" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
+      <c r="B2" s="267"/>
+      <c r="C2" s="267"/>
+      <c r="D2" s="267"/>
+      <c r="E2" s="267"/>
+      <c r="F2" s="267"/>
+      <c r="G2" s="267"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="38"/>
@@ -4717,7 +4827,7 @@
     </row>
     <row r="4" spans="1:7" ht="18.75">
       <c r="A4" s="36" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -4728,31 +4838,31 @@
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1"/>
     <row r="6" spans="1:7" ht="23.25">
-      <c r="A6" s="269" t="s">
+      <c r="A6" s="271" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="271"/>
+      <c r="B6" s="272"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
+      <c r="G6" s="273"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="130" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B7" s="131" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="131" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D7" s="131" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="131" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F7" s="131" t="s">
         <v>17</v>
@@ -4763,7 +4873,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="133" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" s="134">
         <v>1</v>
@@ -4783,7 +4893,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="136" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B9" s="137">
         <v>1</v>
@@ -4803,7 +4913,7 @@
     </row>
     <row r="10" spans="1:7" ht="60">
       <c r="A10" s="133" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B10" s="134">
         <v>0.92</v>
@@ -4820,12 +4930,12 @@
       </c>
       <c r="F10" s="134"/>
       <c r="G10" s="220" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="136" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B11" s="137">
         <v>0.95</v>
@@ -4842,12 +4952,12 @@
       </c>
       <c r="F11" s="137"/>
       <c r="G11" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="133" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B12" s="134">
         <v>1</v>
@@ -4867,7 +4977,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="133" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B13" s="134">
         <v>1</v>
@@ -4887,7 +4997,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="136" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" s="137">
         <v>1</v>
@@ -4907,7 +5017,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="133" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B15" s="134">
         <v>1</v>
@@ -4927,7 +5037,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="136" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B16" s="137">
         <v>1</v>
@@ -4947,7 +5057,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="139" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B17" s="140">
         <v>1</v>
@@ -4967,10 +5077,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="142" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
+        <v>141</v>
+      </c>
+      <c r="B18" s="274"/>
+      <c r="C18" s="274"/>
       <c r="D18" s="143">
         <f>SUM(D8:D17)</f>
         <v>100</v>
@@ -4984,7 +5094,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="146" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B19" s="147" t="s">
         <v>14</v>
@@ -4994,7 +5104,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="148" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F19" s="148"/>
       <c r="G19" s="149" t="s">
@@ -5003,7 +5113,7 @@
     </row>
     <row r="20" spans="1:7" ht="30">
       <c r="A20" s="150" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B20" s="221">
         <v>0.35</v>
@@ -5018,12 +5128,12 @@
       </c>
       <c r="F20" s="221"/>
       <c r="G20" s="223" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="151" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" s="152">
         <v>0</v>
@@ -5040,31 +5150,31 @@
       <c r="G21" s="154"/>
     </row>
     <row r="22" spans="1:7" ht="23.25">
-      <c r="A22" s="273" t="s">
+      <c r="A22" s="275" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="274"/>
-      <c r="C22" s="274"/>
-      <c r="D22" s="274"/>
-      <c r="E22" s="274"/>
-      <c r="F22" s="274"/>
-      <c r="G22" s="275"/>
+      <c r="B22" s="276"/>
+      <c r="C22" s="276"/>
+      <c r="D22" s="276"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276"/>
+      <c r="G22" s="277"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="155" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B23" s="156" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="156" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D23" s="156" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="156" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F23" s="156" t="s">
         <v>17</v>
@@ -5075,7 +5185,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="158" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B24" s="159">
         <v>1</v>
@@ -5095,7 +5205,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="161" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B25" s="162">
         <v>1</v>
@@ -5115,7 +5225,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="158" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B26" s="159">
         <v>1</v>
@@ -5135,7 +5245,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="161" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B27" s="162">
         <v>1</v>
@@ -5155,7 +5265,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="158" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B28" s="159">
         <v>1</v>
@@ -5173,9 +5283,9 @@
       <c r="F28" s="159"/>
       <c r="G28" s="160"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="60.75">
       <c r="A29" s="161" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B29" s="162">
         <v>0.9</v>
@@ -5191,13 +5301,13 @@
         <v>12.6</v>
       </c>
       <c r="F29" s="162"/>
-      <c r="G29" s="163" t="s">
-        <v>148</v>
+      <c r="G29" s="224" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="158" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B30" s="159">
         <v>1</v>
@@ -5213,11 +5323,11 @@
         <v>12</v>
       </c>
       <c r="F30" s="159"/>
-      <c r="G30" s="160"/>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="G30" s="225"/>
+    </row>
+    <row r="31" spans="1:7" ht="60.75">
       <c r="A31" s="161" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B31" s="162">
         <v>0.9</v>
@@ -5233,13 +5343,13 @@
         <v>3.6</v>
       </c>
       <c r="F31" s="162"/>
-      <c r="G31" s="163" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="G31" s="224" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30.75">
       <c r="A32" s="158" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B32" s="159">
         <v>0.95</v>
@@ -5255,13 +5365,13 @@
         <v>9.5</v>
       </c>
       <c r="F32" s="159"/>
-      <c r="G32" s="160" t="s">
-        <v>153</v>
+      <c r="G32" s="225" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="164" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B33" s="165">
         <v>1</v>
@@ -5281,7 +5391,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="167" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B34" s="168"/>
       <c r="C34" s="168"/>
@@ -5291,14 +5401,14 @@
       </c>
       <c r="E34" s="169">
         <f>(SUM(E24:E33) + E36+E37+E38)/D34</f>
-        <v>0.90199999999999991</v>
+        <v>0.97699999999999987</v>
       </c>
       <c r="F34" s="169"/>
       <c r="G34" s="170"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="171" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B35" s="172" t="s">
         <v>14</v>
@@ -5308,7 +5418,7 @@
         <v>4</v>
       </c>
       <c r="E35" s="173" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F35" s="173"/>
       <c r="G35" s="174" t="s">
@@ -5317,7 +5427,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="175" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B36" s="176">
         <v>0</v>
@@ -5335,10 +5445,10 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="179" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B37" s="180">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C37" s="180"/>
       <c r="D37" s="181">
@@ -5346,16 +5456,16 @@
       </c>
       <c r="E37" s="180">
         <f>B37*D37</f>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="F37" s="180"/>
       <c r="G37" s="182" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="183" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B38" s="184">
         <v>0</v>
@@ -5372,31 +5482,31 @@
       <c r="G38" s="186"/>
     </row>
     <row r="39" spans="1:7" ht="23.25">
-      <c r="A39" s="266" t="s">
+      <c r="A39" s="268" t="s">
         <v>8</v>
       </c>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="268"/>
+      <c r="B39" s="269"/>
+      <c r="C39" s="269"/>
+      <c r="D39" s="269"/>
+      <c r="E39" s="269"/>
+      <c r="F39" s="269"/>
+      <c r="G39" s="270"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="187" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B40" s="188" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="188" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D40" s="188" t="s">
         <v>4</v>
       </c>
       <c r="E40" s="188" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F40" s="188" t="s">
         <v>17</v>
@@ -5407,187 +5517,191 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="190" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B41" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D41" s="191">
         <v>16</v>
       </c>
       <c r="E41" s="191">
         <f t="shared" ref="E41:E49" si="2">B41*C41*D41</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F41" s="191"/>
       <c r="G41" s="192"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="193" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B42" s="194">
-        <v>0</v>
-      </c>
-      <c r="C42" s="194">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="C42" s="191">
+        <v>1</v>
       </c>
       <c r="D42" s="194">
         <v>16</v>
       </c>
       <c r="E42" s="194">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15.2</v>
       </c>
       <c r="F42" s="194"/>
-      <c r="G42" s="195"/>
+      <c r="G42" s="195" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="190" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B43" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" s="191">
         <v>15</v>
       </c>
       <c r="E43" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F43" s="191"/>
       <c r="G43" s="192"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="193" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B44" s="194">
-        <v>0</v>
-      </c>
-      <c r="C44" s="194">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C44" s="191">
+        <v>1</v>
       </c>
       <c r="D44" s="194">
         <v>15</v>
       </c>
       <c r="E44" s="194">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F44" s="194"/>
       <c r="G44" s="195"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="190" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B45" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D45" s="191">
         <v>10</v>
       </c>
       <c r="E45" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F45" s="191"/>
       <c r="G45" s="192"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="193" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B46" s="194">
-        <v>0</v>
-      </c>
-      <c r="C46" s="194">
-        <v>0</v>
+        <v>0.7</v>
+      </c>
+      <c r="C46" s="191">
+        <v>1</v>
       </c>
       <c r="D46" s="194">
         <v>8</v>
       </c>
       <c r="E46" s="194">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="F46" s="194"/>
-      <c r="G46" s="195"/>
+      <c r="G46" s="195" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="190" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B47" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C47" s="191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47" s="191">
         <v>8</v>
       </c>
       <c r="E47" s="191">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F47" s="191"/>
       <c r="G47" s="192"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="193" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B48" s="194">
-        <v>0</v>
-      </c>
-      <c r="C48" s="194">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C48" s="191">
+        <v>1</v>
       </c>
       <c r="D48" s="194">
         <v>8</v>
       </c>
       <c r="E48" s="194">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F48" s="194"/>
       <c r="G48" s="195"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="196" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B49" s="197">
-        <v>0</v>
-      </c>
-      <c r="C49" s="197">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C49" s="191">
+        <v>1</v>
       </c>
       <c r="D49" s="197">
         <v>4</v>
       </c>
       <c r="E49" s="197">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F49" s="197"/>
       <c r="G49" s="198"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="199" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B50" s="200"/>
       <c r="C50" s="200"/>
@@ -5597,14 +5711,14 @@
       </c>
       <c r="E50" s="201">
         <f>(SUM(E41:E49) +E52+E53+E54)/D50</f>
-        <v>0</v>
+        <v>0.96799999999999997</v>
       </c>
       <c r="F50" s="201"/>
       <c r="G50" s="202"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="203" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B51" s="204" t="s">
         <v>14</v>
@@ -5614,7 +5728,7 @@
         <v>4</v>
       </c>
       <c r="E51" s="205" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F51" s="205"/>
       <c r="G51" s="206" t="s">
@@ -5623,7 +5737,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="207" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B52" s="208">
         <v>0</v>
@@ -5641,7 +5755,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="211" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B53" s="212">
         <v>0</v>
@@ -5659,7 +5773,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="215" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B54" s="216">
         <v>0</v>
@@ -5688,7 +5802,7 @@
       <formula1>0</formula1>
       <formula2>1</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C41:C49 C8:C17" xr:uid="{DCFB5783-098F-4837-84E1-A329359B138C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C20 C8:C17 C41:C49" xr:uid="{DCFB5783-098F-4837-84E1-A329359B138C}">
       <formula1>"0,0.25,0.50,0.75,1"</formula1>
     </dataValidation>
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E53:F53 E37:F37" xr:uid="{301E7E41-CD71-4A91-B881-91EF87706901}">
@@ -5702,12 +5816,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5843,13 +5954,16 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5857,5 +5971,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F1A1E89-A0AE-4DED-85B2-2445C39C0F55}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F62C71A-5318-410B-8440-006B73523578}"/>
 </file>